--- a/IT開発2画面遷移.xlsx
+++ b/IT開発2画面遷移.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yamaguchigakuen-my.sharepoint.com/personal/2210342_ecc_ac_jp/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yamaguchigakuen-my.sharepoint.com/personal/2210342_ecc_ac_jp/Documents/デスクトップ/ITシステム開発演習Ⅱ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D066CA252ABDACC10484EC9D1E46E73EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A3B70C3-2160-4F21-9E6D-23F853F380D7}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4D066CA252ABDACC10484EC9D1E46E73EEDF57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C920B1B-AB43-324A-9937-E3F73FA09E02}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="画面遷移(グループユーザー)" sheetId="1" r:id="rId1"/>
     <sheet name="画面遷移(グループ管理者) " sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +100,152 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205318</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>471379</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661AED40-22AA-4C33-817B-B6FA92E82D46}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{29CB7001-D049-7897-EA0D-868BAD070A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4805893" y="1238250"/>
+          <a:ext cx="1580511" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グループへの招待認証</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポップアップ式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256536</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8285F0-4D0D-41B4-80BC-BF68EF76B5AF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{661AED40-22AA-4C33-817B-B6FA92E82D46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3687233" y="2387600"/>
+          <a:ext cx="1251370" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グループの作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポップアップ式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -169,6 +326,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6293F37-CA64-4A14-A733-4E9397C85317}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F579B5BC-843E-B566-7F02-08A2AFD69F9F}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
@@ -231,11 +391,19 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2040C07-8A8B-9A40-8629-E4566EFFA4FA}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6293F37-CA64-4A14-A733-4E9397C85317}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="7" idx="0"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{F579B5BC-843E-B566-7F02-08A2AFD69F9F}" end="{E6293F37-CA64-4A14-A733-4E9397C85317}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -269,16 +437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>516467</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -287,14 +455,17 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABD57DB-57CA-992B-EF42-FF1AB5ABF142}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E2040C07-8A8B-9A40-8629-E4566EFFA4FA}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="2295526"/>
-          <a:ext cx="1171575" cy="342900"/>
+          <a:off x="516467" y="1866900"/>
+          <a:ext cx="1408641" cy="249767"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -352,11 +523,19 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5513DD4-2F8F-562A-DB4B-1F8B89743EA2}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4ABD57DB-57CA-992B-EF42-FF1AB5ABF142}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="15" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{F579B5BC-843E-B566-7F02-08A2AFD69F9F}" end="{621B1462-4E71-4D19-8978-EDAD20FA83D0}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -408,11 +587,19 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BF6B11-B593-F410-0BAD-2BCF83719B87}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F5513DD4-2F8F-562A-DB4B-1F8B89743EA2}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="15" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{E6293F37-CA64-4A14-A733-4E9397C85317}" end="{621B1462-4E71-4D19-8978-EDAD20FA83D0}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -463,6 +650,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621B1462-4E71-4D19-8978-EDAD20FA83D0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{78BF6B11-B593-F410-0BAD-2BCF83719B87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -526,11 +716,19 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529FD0C9-9CA8-F537-0306-A8E6E0E9CD95}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{621B1462-4E71-4D19-8978-EDAD20FA83D0}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="2"/>
           <a:endCxn id="25" idx="0"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{621B1462-4E71-4D19-8978-EDAD20FA83D0}" end="{33AAC1E6-D3D0-41D9-BD1C-3A90DC9BA428}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -582,14 +780,17 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AAC1E6-D3D0-41D9-BD1C-3A90DC9BA428}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{529FD0C9-9CA8-F537-0306-A8E6E0E9CD95}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5153025" y="4210050"/>
-          <a:ext cx="1637661" cy="1114425"/>
+          <a:off x="4953000" y="4210050"/>
+          <a:ext cx="1580511" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -626,79 +827,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666431</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27936</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371156</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF824921-BDA3-B422-B035-65A89AD6B9D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-          <a:endCxn id="31" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4095431" y="3067050"/>
-          <a:ext cx="1076325" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>113661</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8285F0-4D0D-41B4-80BC-BF68EF76B5AF}"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FD7062-9681-4FB2-9C45-0A2A1D757750}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2A8285F0-4D0D-41B4-80BC-BF68EF76B5AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -706,7 +854,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276600" y="4210050"/>
+          <a:off x="7305675" y="1943100"/>
           <a:ext cx="1637661" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -734,7 +882,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>グループの作成</a:t>
+            <a:t>ユーザーの設定</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -744,6 +892,617 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504186</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE6CDB6-277B-D208-DED6-18B155B63BC9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C1FD7062-9681-4FB2-9C45-0A2A1D757750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="40" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{621B1462-4E71-4D19-8978-EDAD20FA83D0}" end="{C1FD7062-9681-4FB2-9C45-0A2A1D757750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5990586" y="2500313"/>
+          <a:ext cx="1315089" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504186</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98299073-9414-0420-17B7-D8A6768B3378}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7FE6CDB6-277B-D208-DED6-18B155B63BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+          <a:endCxn id="15" idx="3"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{C1FD7062-9681-4FB2-9C45-0A2A1D757750}" end="{621B1462-4E71-4D19-8978-EDAD20FA83D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5990586" y="2500313"/>
+          <a:ext cx="1315089" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>46985</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F27A3-FFCD-4799-8AB8-6B23CE154414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152524" y="876300"/>
+          <a:ext cx="1637661" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>46985</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4832DD2A-D79F-43B5-9415-DDEFD592D801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152524" y="3028950"/>
+          <a:ext cx="1637661" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599755</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599755</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC4A773-6BFA-4FE8-9754-FFB090F34EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971355" y="1990725"/>
+          <a:ext cx="0" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FF1480-6145-4D0A-85EC-A103E9888D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="2295526"/>
+          <a:ext cx="1171575" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>46985</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2470C030-32CD-48E4-89C2-F58F9F6D5D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790185" y="1433513"/>
+          <a:ext cx="1572265" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>46985</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>13520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFE9F74-AD36-4337-B87D-376E48D2B647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2787727" y="2544250"/>
+          <a:ext cx="1571036" cy="1064189"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352106</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485455</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A37CF48-5EAA-47F3-98CF-CC2FCB4E0EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5148404" y="3104535"/>
+          <a:ext cx="818535" cy="1131632"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>618486</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7195C3-6217-4689-AF50-5404B1888624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="4210050"/>
+          <a:ext cx="1637661" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グループのメンバーの一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -757,10 +1516,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FD7062-9681-4FB2-9C45-0A2A1D757750}"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BFD82C9-E4AA-4A3F-81F3-38B96001783C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -807,7 +1566,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504186</xdr:colOff>
+      <xdr:colOff>456561</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
@@ -815,26 +1574,27 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE6CDB6-277B-D208-DED6-18B155B63BC9}"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556A6BDB-ACB3-43B1-9141-3374FC6E4A8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="3"/>
-          <a:endCxn id="40" idx="1"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5990586" y="2500313"/>
-          <a:ext cx="1315089" cy="9525"/>
+          <a:off x="5939003" y="2494128"/>
+          <a:ext cx="1361724" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -863,7 +1623,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504186</xdr:colOff>
+      <xdr:colOff>456561</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
@@ -871,841 +1631,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98299073-9414-0420-17B7-D8A6768B3378}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="1"/>
-          <a:endCxn id="15" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5990586" y="2500313"/>
-          <a:ext cx="1315089" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>46985</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F27A3-FFCD-4799-8AB8-6B23CE154414}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1152524" y="876300"/>
-          <a:ext cx="1637661" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>46985</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4832DD2A-D79F-43B5-9415-DDEFD592D801}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1152524" y="3028950"/>
-          <a:ext cx="1637661" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>599755</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>599755</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC4A773-6BFA-4FE8-9754-FFB090F34EBB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971355" y="1990725"/>
-          <a:ext cx="0" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FF1480-6145-4D0A-85EC-A103E9888D85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="2295526"/>
-          <a:ext cx="1171575" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録ボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>46985</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2470C030-32CD-48E4-89C2-F58F9F6D5D43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2790185" y="1433513"/>
-          <a:ext cx="1562740" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>46985</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFE9F74-AD36-4337-B87D-376E48D2B647}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2790185" y="2509838"/>
-          <a:ext cx="1562740" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504186</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93426D94-5201-42B4-AB43-C8F94DD2F498}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4352925" y="1952625"/>
-          <a:ext cx="1637661" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>グループの一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371156</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485456</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A37CF48-5EAA-47F3-98CF-CC2FCB4E0EEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5171756" y="3067050"/>
-          <a:ext cx="800100" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>618486</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7195C3-6217-4689-AF50-5404B1888624}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="4210050"/>
-          <a:ext cx="1637661" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>グループのメンバーの一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666431</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371156</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A57BB2E-A15D-4EE4-8B16-2B4A8619D313}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4095431" y="3067050"/>
-          <a:ext cx="1076325" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>113661</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0DEA0A-673A-43B4-8530-780BD8D76C84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3276600" y="4210050"/>
-          <a:ext cx="1637661" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>グループの作成</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27936</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BFD82C9-E4AA-4A3F-81F3-38B96001783C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7305675" y="1943100"/>
-          <a:ext cx="1637661" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザーの状態を変更</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504186</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556A6BDB-ACB3-43B1-9141-3374FC6E4A8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5990586" y="2500313"/>
-          <a:ext cx="1315089" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504186</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1717,14 +1643,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="13" idx="1"/>
-          <a:endCxn id="8" idx="3"/>
+          <a:endCxn id="22" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5990586" y="2500313"/>
-          <a:ext cx="1315089" cy="9525"/>
+          <a:off x="5939003" y="2494128"/>
+          <a:ext cx="1361724" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1874,6 +1801,217 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186268</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395179</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5538445A-E23A-4C8F-9705-C243665279C9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{29CB7001-D049-7897-EA0D-868BAD070A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4986868" y="1257300"/>
+          <a:ext cx="1580511" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グループへの招待認証</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポップアップ式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237486</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13193C33-8BB2-4124-B46D-7EEA2C071536}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5538445A-E23A-4C8F-9705-C243665279C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3873500" y="2406650"/>
+          <a:ext cx="1253486" cy="717550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グループの作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポップアップ式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456561</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB94B49-716C-411C-AF1B-8F707B3A4D0F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{78BF6B11-B593-F410-0BAD-2BCF83719B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="1971675"/>
+          <a:ext cx="1580511" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グループの一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2144,13 +2282,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:BR1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="70" width="9" style="1"/>
+    <col min="1" max="70" width="8.578125" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -2167,13 +2305,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161502BB-552A-49F3-86A1-454DFC143C1C}">
   <dimension ref="A1:BR1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection sqref="A1:BR1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="70" width="9" style="1"/>
+    <col min="1" max="70" width="8.94921875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
